--- a/_data/SOLUSDT_4h.xlsx
+++ b/_data/SOLUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,786 @@
         <v>180560.695</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>138.65</v>
+      </c>
+      <c r="C1085">
+        <v>140.73</v>
+      </c>
+      <c r="D1085">
+        <v>132.49</v>
+      </c>
+      <c r="E1085">
+        <v>133.32</v>
+      </c>
+      <c r="F1085">
+        <v>1341211.748</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>133.33</v>
+      </c>
+      <c r="C1086">
+        <v>137.91</v>
+      </c>
+      <c r="D1086">
+        <v>132.04</v>
+      </c>
+      <c r="E1086">
+        <v>135.98</v>
+      </c>
+      <c r="F1086">
+        <v>1131431.907</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>135.98</v>
+      </c>
+      <c r="C1087">
+        <v>138.48</v>
+      </c>
+      <c r="D1087">
+        <v>135.65</v>
+      </c>
+      <c r="E1087">
+        <v>137.99</v>
+      </c>
+      <c r="F1087">
+        <v>320593.048</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>137.99</v>
+      </c>
+      <c r="C1088">
+        <v>139.23</v>
+      </c>
+      <c r="D1088">
+        <v>137.5</v>
+      </c>
+      <c r="E1088">
+        <v>138.29</v>
+      </c>
+      <c r="F1088">
+        <v>264961.297</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>138.29</v>
+      </c>
+      <c r="C1089">
+        <v>138.77</v>
+      </c>
+      <c r="D1089">
+        <v>137.38</v>
+      </c>
+      <c r="E1089">
+        <v>137.59</v>
+      </c>
+      <c r="F1089">
+        <v>130327.815</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>137.59</v>
+      </c>
+      <c r="C1090">
+        <v>137.85</v>
+      </c>
+      <c r="D1090">
+        <v>135.79</v>
+      </c>
+      <c r="E1090">
+        <v>137.01</v>
+      </c>
+      <c r="F1090">
+        <v>300188.45</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>137.02</v>
+      </c>
+      <c r="C1091">
+        <v>137.29</v>
+      </c>
+      <c r="D1091">
+        <v>135.57</v>
+      </c>
+      <c r="E1091">
+        <v>136.63</v>
+      </c>
+      <c r="F1091">
+        <v>177030.014</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>136.63</v>
+      </c>
+      <c r="C1092">
+        <v>136.7</v>
+      </c>
+      <c r="D1092">
+        <v>134.49</v>
+      </c>
+      <c r="E1092">
+        <v>134.97</v>
+      </c>
+      <c r="F1092">
+        <v>178614.814</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>134.97</v>
+      </c>
+      <c r="C1093">
+        <v>135.55</v>
+      </c>
+      <c r="D1093">
+        <v>134.51</v>
+      </c>
+      <c r="E1093">
+        <v>135.47</v>
+      </c>
+      <c r="F1093">
+        <v>86965.66099999999</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>135.35</v>
+      </c>
+      <c r="C1094">
+        <v>135.62</v>
+      </c>
+      <c r="D1094">
+        <v>132.88</v>
+      </c>
+      <c r="E1094">
+        <v>134.07</v>
+      </c>
+      <c r="F1094">
+        <v>279306.294</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>134.07</v>
+      </c>
+      <c r="C1095">
+        <v>134.09</v>
+      </c>
+      <c r="D1095">
+        <v>131.09</v>
+      </c>
+      <c r="E1095">
+        <v>132.81</v>
+      </c>
+      <c r="F1095">
+        <v>397081.784</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>132.81</v>
+      </c>
+      <c r="C1096">
+        <v>132.84</v>
+      </c>
+      <c r="D1096">
+        <v>130.18</v>
+      </c>
+      <c r="E1096">
+        <v>131.91</v>
+      </c>
+      <c r="F1096">
+        <v>436844.474</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>131.91</v>
+      </c>
+      <c r="C1097">
+        <v>134.87</v>
+      </c>
+      <c r="D1097">
+        <v>130</v>
+      </c>
+      <c r="E1097">
+        <v>134.29</v>
+      </c>
+      <c r="F1097">
+        <v>529518.341</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>134.29</v>
+      </c>
+      <c r="C1098">
+        <v>135.92</v>
+      </c>
+      <c r="D1098">
+        <v>131.87</v>
+      </c>
+      <c r="E1098">
+        <v>135.23</v>
+      </c>
+      <c r="F1098">
+        <v>363573.128</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>135.24</v>
+      </c>
+      <c r="C1099">
+        <v>136.15</v>
+      </c>
+      <c r="D1099">
+        <v>127.66</v>
+      </c>
+      <c r="E1099">
+        <v>128.5</v>
+      </c>
+      <c r="F1099">
+        <v>922120.72</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>128.5</v>
+      </c>
+      <c r="C1100">
+        <v>130.7</v>
+      </c>
+      <c r="D1100">
+        <v>128.27</v>
+      </c>
+      <c r="E1100">
+        <v>130.21</v>
+      </c>
+      <c r="F1100">
+        <v>567146.12</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>130.21</v>
+      </c>
+      <c r="C1101">
+        <v>130.37</v>
+      </c>
+      <c r="D1101">
+        <v>126.8</v>
+      </c>
+      <c r="E1101">
+        <v>127.66</v>
+      </c>
+      <c r="F1101">
+        <v>639972.608</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>127.65</v>
+      </c>
+      <c r="C1102">
+        <v>132.93</v>
+      </c>
+      <c r="D1102">
+        <v>127.22</v>
+      </c>
+      <c r="E1102">
+        <v>131.9</v>
+      </c>
+      <c r="F1102">
+        <v>785422.107</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>131.83</v>
+      </c>
+      <c r="C1103">
+        <v>133.45</v>
+      </c>
+      <c r="D1103">
+        <v>130</v>
+      </c>
+      <c r="E1103">
+        <v>132.54</v>
+      </c>
+      <c r="F1103">
+        <v>511501.253</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>132.54</v>
+      </c>
+      <c r="C1104">
+        <v>133.87</v>
+      </c>
+      <c r="D1104">
+        <v>131.71</v>
+      </c>
+      <c r="E1104">
+        <v>133.05</v>
+      </c>
+      <c r="F1104">
+        <v>286378.41</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>133.04</v>
+      </c>
+      <c r="C1105">
+        <v>133.5</v>
+      </c>
+      <c r="D1105">
+        <v>132.81</v>
+      </c>
+      <c r="E1105">
+        <v>133.45</v>
+      </c>
+      <c r="F1105">
+        <v>14352.089</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>134.95</v>
+      </c>
+      <c r="C1106">
+        <v>138.13</v>
+      </c>
+      <c r="D1106">
+        <v>134.21</v>
+      </c>
+      <c r="E1106">
+        <v>135.51</v>
+      </c>
+      <c r="F1106">
+        <v>401897.702</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>135.5</v>
+      </c>
+      <c r="C1107">
+        <v>135.89</v>
+      </c>
+      <c r="D1107">
+        <v>133.54</v>
+      </c>
+      <c r="E1107">
+        <v>134.6</v>
+      </c>
+      <c r="F1107">
+        <v>337314.591</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>134.6</v>
+      </c>
+      <c r="C1108">
+        <v>134.64</v>
+      </c>
+      <c r="D1108">
+        <v>132.77</v>
+      </c>
+      <c r="E1108">
+        <v>134.36</v>
+      </c>
+      <c r="F1108">
+        <v>279259.928</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>134.36</v>
+      </c>
+      <c r="C1109">
+        <v>135.5</v>
+      </c>
+      <c r="D1109">
+        <v>129.31</v>
+      </c>
+      <c r="E1109">
+        <v>129.8</v>
+      </c>
+      <c r="F1109">
+        <v>667203.267</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>129.81</v>
+      </c>
+      <c r="C1110">
+        <v>132.21</v>
+      </c>
+      <c r="D1110">
+        <v>129.31</v>
+      </c>
+      <c r="E1110">
+        <v>130.95</v>
+      </c>
+      <c r="F1110">
+        <v>374791.042</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>130.96</v>
+      </c>
+      <c r="C1111">
+        <v>131.61</v>
+      </c>
+      <c r="D1111">
+        <v>127.15</v>
+      </c>
+      <c r="E1111">
+        <v>127.54</v>
+      </c>
+      <c r="F1111">
+        <v>566915.395</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>127.54</v>
+      </c>
+      <c r="C1112">
+        <v>128.89</v>
+      </c>
+      <c r="D1112">
+        <v>122.6</v>
+      </c>
+      <c r="E1112">
+        <v>127.7</v>
+      </c>
+      <c r="F1112">
+        <v>1200406.418</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>127.7</v>
+      </c>
+      <c r="C1113">
+        <v>131.44</v>
+      </c>
+      <c r="D1113">
+        <v>126.55</v>
+      </c>
+      <c r="E1113">
+        <v>130.3</v>
+      </c>
+      <c r="F1113">
+        <v>505116.797</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>130.29</v>
+      </c>
+      <c r="C1114">
+        <v>130.71</v>
+      </c>
+      <c r="D1114">
+        <v>128.11</v>
+      </c>
+      <c r="E1114">
+        <v>128.43</v>
+      </c>
+      <c r="F1114">
+        <v>398907.541</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>128.43</v>
+      </c>
+      <c r="C1115">
+        <v>128.72</v>
+      </c>
+      <c r="D1115">
+        <v>128.4</v>
+      </c>
+      <c r="E1115">
+        <v>128.65</v>
+      </c>
+      <c r="F1115">
+        <v>3550.511</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>133.82</v>
+      </c>
+      <c r="C1116">
+        <v>134.98</v>
+      </c>
+      <c r="D1116">
+        <v>132.58</v>
+      </c>
+      <c r="E1116">
+        <v>132.8</v>
+      </c>
+      <c r="F1116">
+        <v>459187.569</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1117">
+        <v>133.19</v>
+      </c>
+      <c r="C1117">
+        <v>134.66</v>
+      </c>
+      <c r="D1117">
+        <v>132.89</v>
+      </c>
+      <c r="E1117">
+        <v>133.64</v>
+      </c>
+      <c r="F1117">
+        <v>203183.493</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6">
+      <c r="A1118" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1118">
+        <v>133.64</v>
+      </c>
+      <c r="C1118">
+        <v>134.38</v>
+      </c>
+      <c r="D1118">
+        <v>131.28</v>
+      </c>
+      <c r="E1118">
+        <v>131.6</v>
+      </c>
+      <c r="F1118">
+        <v>292498.457</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6">
+      <c r="A1119" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1119">
+        <v>131.6</v>
+      </c>
+      <c r="C1119">
+        <v>134.26</v>
+      </c>
+      <c r="D1119">
+        <v>130.84</v>
+      </c>
+      <c r="E1119">
+        <v>133.1</v>
+      </c>
+      <c r="F1119">
+        <v>373792.043</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1120">
+        <v>133.1</v>
+      </c>
+      <c r="C1120">
+        <v>133.87</v>
+      </c>
+      <c r="D1120">
+        <v>131.69</v>
+      </c>
+      <c r="E1120">
+        <v>132.83</v>
+      </c>
+      <c r="F1120">
+        <v>315818.006</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6">
+      <c r="A1121" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1121">
+        <v>132.83</v>
+      </c>
+      <c r="C1121">
+        <v>135.58</v>
+      </c>
+      <c r="D1121">
+        <v>130.16</v>
+      </c>
+      <c r="E1121">
+        <v>130.61</v>
+      </c>
+      <c r="F1121">
+        <v>905450.0330000001</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6">
+      <c r="A1122" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1122">
+        <v>130.61</v>
+      </c>
+      <c r="C1122">
+        <v>131.14</v>
+      </c>
+      <c r="D1122">
+        <v>127.85</v>
+      </c>
+      <c r="E1122">
+        <v>128.44</v>
+      </c>
+      <c r="F1122">
+        <v>622556.003</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6">
+      <c r="A1123" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1123">
+        <v>128.44</v>
+      </c>
+      <c r="C1123">
+        <v>129.91</v>
+      </c>
+      <c r="D1123">
+        <v>128.13</v>
+      </c>
+      <c r="E1123">
+        <v>128.92</v>
+      </c>
+      <c r="F1123">
+        <v>185115.496</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
